--- a/Pagination_data1.xlsx
+++ b/Pagination_data1.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,13 +415,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://picsum.photos/200</v>
+        <v>http://localhost:5003/uploads/1730821513246.jpg</v>
       </c>
       <c r="B2" t="str">
-        <v>Image 2222</v>
+        <v>ddCheck</v>
       </c>
       <c r="C2" t="str">
-        <v>Des of Image 222</v>
+        <v>Check</v>
       </c>
     </row>
     <row r="3">
@@ -429,10 +429,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B3" t="str">
-        <v>Image 3</v>
+        <v>Image 2222</v>
       </c>
       <c r="C3" t="str">
-        <v>Des of Image 3</v>
+        <v>Des of Image 222</v>
       </c>
     </row>
     <row r="4">
@@ -440,10 +440,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B4" t="str">
-        <v>Image 4</v>
+        <v>Image 3</v>
       </c>
       <c r="C4" t="str">
-        <v>Des of Image 4</v>
+        <v>Des of Image 3</v>
       </c>
     </row>
     <row r="5">
@@ -451,10 +451,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B5" t="str">
-        <v>Image 5</v>
+        <v>Image 6</v>
       </c>
       <c r="C5" t="str">
-        <v>Des of Image 5</v>
+        <v>Des of Image 6</v>
       </c>
     </row>
     <row r="6">
@@ -462,10 +462,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B6" t="str">
-        <v>Image 6</v>
+        <v>Image 7</v>
       </c>
       <c r="C6" t="str">
-        <v>Des of Image 6</v>
+        <v>Des of Image 7</v>
       </c>
     </row>
     <row r="7">
@@ -473,10 +473,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B7" t="str">
-        <v>Image 7</v>
+        <v>Image 8</v>
       </c>
       <c r="C7" t="str">
-        <v>Des of Image 7</v>
+        <v>Des of Image 8</v>
       </c>
     </row>
     <row r="8">
@@ -484,10 +484,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B8" t="str">
-        <v>Image 8</v>
+        <v>Image 9</v>
       </c>
       <c r="C8" t="str">
-        <v>Des of Image 8</v>
+        <v>Des of Image 9</v>
       </c>
     </row>
     <row r="9">
@@ -495,10 +495,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B9" t="str">
-        <v>Image 9</v>
+        <v>Image 12</v>
       </c>
       <c r="C9" t="str">
-        <v>Des of Image 9</v>
+        <v>Des of Image 12</v>
       </c>
     </row>
     <row r="10">
@@ -506,10 +506,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B10" t="str">
-        <v>Image 12</v>
+        <v>Image 13</v>
       </c>
       <c r="C10" t="str">
-        <v>Des of Image 12</v>
+        <v>Des of Image 13</v>
       </c>
     </row>
     <row r="11">
@@ -517,10 +517,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B11" t="str">
-        <v>Image 13</v>
+        <v>Image 14</v>
       </c>
       <c r="C11" t="str">
-        <v>Des of Image 13</v>
+        <v>Des of Image 14</v>
       </c>
     </row>
     <row r="12">
@@ -528,10 +528,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B12" t="str">
-        <v>Image 14</v>
+        <v>Image 15</v>
       </c>
       <c r="C12" t="str">
-        <v>Des of Image 14</v>
+        <v>Des of Image 15</v>
       </c>
     </row>
     <row r="13">
@@ -539,10 +539,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B13" t="str">
-        <v>Image 15</v>
+        <v>Image 16</v>
       </c>
       <c r="C13" t="str">
-        <v>Des of Image 15</v>
+        <v>Des of Image 16</v>
       </c>
     </row>
     <row r="14">
@@ -550,10 +550,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B14" t="str">
-        <v>Image 16</v>
+        <v>Image 17</v>
       </c>
       <c r="C14" t="str">
-        <v>Des of Image 16</v>
+        <v>Des of Image 17</v>
       </c>
     </row>
     <row r="15">
@@ -561,10 +561,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B15" t="str">
-        <v>Image 17</v>
+        <v>Image 18</v>
       </c>
       <c r="C15" t="str">
-        <v>Des of Image 17</v>
+        <v>Des of Image 18</v>
       </c>
     </row>
     <row r="16">
@@ -572,10 +572,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B16" t="str">
-        <v>Image 18</v>
+        <v>Image 19</v>
       </c>
       <c r="C16" t="str">
-        <v>Des of Image 18</v>
+        <v>Des of Image 19</v>
       </c>
     </row>
     <row r="17">
@@ -583,10 +583,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B17" t="str">
-        <v>Image 19</v>
+        <v>Image 20</v>
       </c>
       <c r="C17" t="str">
-        <v>Des of Image 19</v>
+        <v>Des of Image 20</v>
       </c>
     </row>
     <row r="18">
@@ -594,10 +594,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B18" t="str">
-        <v>Image 20</v>
+        <v>Image 21</v>
       </c>
       <c r="C18" t="str">
-        <v>Des of Image 20</v>
+        <v>Des of Image 21</v>
       </c>
     </row>
     <row r="19">
@@ -605,10 +605,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B19" t="str">
-        <v>Image 21</v>
+        <v>Image 22</v>
       </c>
       <c r="C19" t="str">
-        <v>Des of Image 21</v>
+        <v>Des of Image 22</v>
       </c>
     </row>
     <row r="20">
@@ -616,10 +616,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B20" t="str">
-        <v>Image 22</v>
+        <v>Image 23</v>
       </c>
       <c r="C20" t="str">
-        <v>Des of Image 22</v>
+        <v>Des of Image 23</v>
       </c>
     </row>
     <row r="21">
@@ -627,10 +627,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B21" t="str">
-        <v>Image 23</v>
+        <v>Image 24</v>
       </c>
       <c r="C21" t="str">
-        <v>Des of Image 23</v>
+        <v>Des of Image 24</v>
       </c>
     </row>
     <row r="22">
@@ -638,10 +638,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B22" t="str">
-        <v>Image 24</v>
+        <v>Image 25</v>
       </c>
       <c r="C22" t="str">
-        <v>Des of Image 24</v>
+        <v>Des of Image 25</v>
       </c>
     </row>
     <row r="23">
@@ -649,10 +649,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B23" t="str">
-        <v>Image 25</v>
+        <v>Image 26</v>
       </c>
       <c r="C23" t="str">
-        <v>Des of Image 25</v>
+        <v>Des of Image 26</v>
       </c>
     </row>
     <row r="24">
@@ -660,10 +660,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B24" t="str">
-        <v>Image 26</v>
+        <v>Image 27</v>
       </c>
       <c r="C24" t="str">
-        <v>Des of Image 26</v>
+        <v>Des of Image 27</v>
       </c>
     </row>
     <row r="25">
@@ -671,10 +671,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B25" t="str">
-        <v>Image 27</v>
+        <v>Image 28</v>
       </c>
       <c r="C25" t="str">
-        <v>Des of Image 27</v>
+        <v>Des of Image 28</v>
       </c>
     </row>
     <row r="26">
@@ -682,10 +682,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B26" t="str">
-        <v>Image 28</v>
+        <v>Image 29</v>
       </c>
       <c r="C26" t="str">
-        <v>Des of Image 28</v>
+        <v>Des of Image 29</v>
       </c>
     </row>
     <row r="27">
@@ -693,10 +693,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B27" t="str">
-        <v>Image 29</v>
+        <v>Image 30</v>
       </c>
       <c r="C27" t="str">
-        <v>Des of Image 29</v>
+        <v>Des of Image 30</v>
       </c>
     </row>
     <row r="28">
@@ -704,10 +704,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B28" t="str">
-        <v>Image 30</v>
+        <v>Image 31</v>
       </c>
       <c r="C28" t="str">
-        <v>Des of Image 30</v>
+        <v>Des of Image 31</v>
       </c>
     </row>
     <row r="29">
@@ -715,10 +715,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B29" t="str">
-        <v>Image 31</v>
+        <v>Image 32</v>
       </c>
       <c r="C29" t="str">
-        <v>Des of Image 31</v>
+        <v>Des of Image 32</v>
       </c>
     </row>
     <row r="30">
@@ -726,10 +726,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B30" t="str">
-        <v>Image 32</v>
+        <v>Image 33</v>
       </c>
       <c r="C30" t="str">
-        <v>Des of Image 32</v>
+        <v>Des of Image 33</v>
       </c>
     </row>
     <row r="31">
@@ -737,10 +737,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B31" t="str">
-        <v>Image 33</v>
+        <v>Image 34</v>
       </c>
       <c r="C31" t="str">
-        <v>Des of Image 33</v>
+        <v>Des of Image 34</v>
       </c>
     </row>
     <row r="32">
@@ -748,10 +748,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B32" t="str">
-        <v>Image 34</v>
+        <v>Image 35</v>
       </c>
       <c r="C32" t="str">
-        <v>Des of Image 34</v>
+        <v>Des of Image 35</v>
       </c>
     </row>
     <row r="33">
@@ -759,10 +759,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B33" t="str">
-        <v>Image 35</v>
+        <v>Image 36</v>
       </c>
       <c r="C33" t="str">
-        <v>Des of Image 35</v>
+        <v>Des of Image 36</v>
       </c>
     </row>
     <row r="34">
@@ -770,10 +770,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B34" t="str">
-        <v>Image 36</v>
+        <v>Image 37</v>
       </c>
       <c r="C34" t="str">
-        <v>Des of Image 36</v>
+        <v>Des of Image 37</v>
       </c>
     </row>
     <row r="35">
@@ -781,10 +781,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B35" t="str">
-        <v>Image 37</v>
+        <v>Image 38</v>
       </c>
       <c r="C35" t="str">
-        <v>Des of Image 37</v>
+        <v>Des of Image 38</v>
       </c>
     </row>
     <row r="36">
@@ -792,10 +792,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B36" t="str">
-        <v>Image 38</v>
+        <v>Image 39</v>
       </c>
       <c r="C36" t="str">
-        <v>Des of Image 38</v>
+        <v>Des of Image 39</v>
       </c>
     </row>
     <row r="37">
@@ -803,10 +803,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B37" t="str">
-        <v>Image 39</v>
+        <v>Image 40</v>
       </c>
       <c r="C37" t="str">
-        <v>Des of Image 39</v>
+        <v>Des of Image 40</v>
       </c>
     </row>
     <row r="38">
@@ -814,10 +814,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B38" t="str">
-        <v>Image 40</v>
+        <v>Image 41</v>
       </c>
       <c r="C38" t="str">
-        <v>Des of Image 40</v>
+        <v>Des of Image 41</v>
       </c>
     </row>
     <row r="39">
@@ -825,10 +825,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B39" t="str">
-        <v>Image 41</v>
+        <v>Image 42</v>
       </c>
       <c r="C39" t="str">
-        <v>Des of Image 41</v>
+        <v>Des of Image 42</v>
       </c>
     </row>
     <row r="40">
@@ -836,10 +836,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B40" t="str">
-        <v>Image 42</v>
+        <v>Image 43</v>
       </c>
       <c r="C40" t="str">
-        <v>Des of Image 42</v>
+        <v>Des of Image 43</v>
       </c>
     </row>
     <row r="41">
@@ -847,10 +847,10 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B41" t="str">
-        <v>Image 43</v>
+        <v>Image 44</v>
       </c>
       <c r="C41" t="str">
-        <v>Des of Image 43</v>
+        <v>Des of Image 44</v>
       </c>
     </row>
     <row r="42">
@@ -858,26 +858,15 @@
         <v>https://picsum.photos/200</v>
       </c>
       <c r="B42" t="str">
-        <v>Image 44</v>
+        <v>Image 45</v>
       </c>
       <c r="C42" t="str">
-        <v>Des of Image 44</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://picsum.photos/200</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Image 45</v>
-      </c>
-      <c r="C43" t="str">
         <v>Des of Image 45</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Pagination_data1.xlsx
+++ b/Pagination_data1.xlsx
@@ -397,476 +397,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B1" t="str">
         <v>Image</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Title</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Description</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>http://localhost:5003/uploads/1730821513246.jpg</v>
+        <v>5cc4cb9a-1d9a-4837-b421-98f14ec43e1e</v>
       </c>
       <c r="B2" t="str">
-        <v>ddCheck</v>
+        <v>http://localhost:5003/uploads/1732035134091.jpeg</v>
       </c>
       <c r="C2" t="str">
-        <v>Check</v>
+        <v>Deepak</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Deeapk Description</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://picsum.photos/200</v>
+        <v>dcc4c0f8-749d-4056-bc53-7839ecada604</v>
       </c>
       <c r="B3" t="str">
-        <v>Image 2222</v>
+        <v>http://localhost:5003/uploads/1731415429125.jpg</v>
       </c>
       <c r="C3" t="str">
-        <v>Des of Image 222</v>
+        <v>first</v>
+      </c>
+      <c r="D3" t="str">
+        <v>ijka</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Image 3</v>
+        <v>https://picsum.photos/200</v>
       </c>
       <c r="C4" t="str">
-        <v>Des of Image 3</v>
+        <v>Image 33</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Des of Image 33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C5" t="str">
         <v>Image 6</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>Des of Image 6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C6" t="str">
         <v>Image 7</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>Des of Image 7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C7" t="str">
         <v>Image 8</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>Des of Image 8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C8" t="str">
         <v>Image 9</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>Des of Image 9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C9" t="str">
         <v>Image 12</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <v>Des of Image 12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C10" t="str">
         <v>Image 13</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <v>Des of Image 13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C11" t="str">
         <v>Image 14</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>Des of Image 14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C12" t="str">
         <v>Image 15</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>Des of Image 15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C13" t="str">
         <v>Image 16</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>Des of Image 16</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C14" t="str">
         <v>Image 17</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>Des of Image 17</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C15" t="str">
         <v>Image 18</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <v>Des of Image 18</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C16" t="str">
         <v>Image 19</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <v>Des of Image 19</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C17" t="str">
         <v>Image 20</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <v>Des of Image 20</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C18" t="str">
         <v>Image 21</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <v>Des of Image 21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C19" t="str">
         <v>Image 22</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <v>Des of Image 22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C20" t="str">
         <v>Image 23</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <v>Des of Image 23</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C21" t="str">
         <v>Image 24</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <v>Des of Image 24</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C22" t="str">
         <v>Image 25</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <v>Des of Image 25</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C23" t="str">
         <v>Image 26</v>
       </c>
-      <c r="C23" t="str">
+      <c r="D23" t="str">
         <v>Des of Image 26</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C24" t="str">
         <v>Image 27</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <v>Des of Image 27</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C25" t="str">
         <v>Image 28</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <v>Des of Image 28</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C26" t="str">
         <v>Image 29</v>
       </c>
-      <c r="C26" t="str">
+      <c r="D26" t="str">
         <v>Des of Image 29</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C27" t="str">
         <v>Image 30</v>
       </c>
-      <c r="C27" t="str">
+      <c r="D27" t="str">
         <v>Des of Image 30</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C28" t="str">
         <v>Image 31</v>
       </c>
-      <c r="C28" t="str">
+      <c r="D28" t="str">
         <v>Des of Image 31</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C29" t="str">
         <v>Image 32</v>
       </c>
-      <c r="C29" t="str">
+      <c r="D29" t="str">
         <v>Des of Image 32</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C30" t="str">
         <v>Image 33</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D30" t="str">
         <v>Des of Image 33</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C31" t="str">
         <v>Image 34</v>
       </c>
-      <c r="C31" t="str">
+      <c r="D31" t="str">
         <v>Des of Image 34</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C32" t="str">
         <v>Image 35</v>
       </c>
-      <c r="C32" t="str">
+      <c r="D32" t="str">
         <v>Des of Image 35</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C33" t="str">
         <v>Image 36</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <v>Des of Image 36</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C34" t="str">
         <v>Image 37</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <v>Des of Image 37</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C35" t="str">
         <v>Image 38</v>
       </c>
-      <c r="C35" t="str">
+      <c r="D35" t="str">
         <v>Des of Image 38</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C36" t="str">
         <v>Image 39</v>
       </c>
-      <c r="C36" t="str">
+      <c r="D36" t="str">
         <v>Des of Image 39</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C37" t="str">
         <v>Image 40</v>
       </c>
-      <c r="C37" t="str">
+      <c r="D37" t="str">
         <v>Des of Image 40</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C38" t="str">
         <v>Image 41</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <v>Des of Image 41</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C39" t="str">
         <v>Image 42</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <v>Des of Image 42</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C40" t="str">
         <v>Image 43</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
         <v>Des of Image 43</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C41" t="str">
         <v>Image 44</v>
       </c>
-      <c r="C41" t="str">
+      <c r="D41" t="str">
         <v>Des of Image 44</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
-        <v>https://picsum.photos/200</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="str">
+        <v>https://picsum.photos/200</v>
+      </c>
+      <c r="C42" t="str">
         <v>Image 45</v>
       </c>
-      <c r="C42" t="str">
+      <c r="D42" t="str">
         <v>Des of Image 45</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D42"/>
   </ignoredErrors>
 </worksheet>
 </file>